--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>78.2200418873781</v>
+        <v>88.72291666666666</v>
       </c>
       <c r="H2">
-        <v>78.2200418873781</v>
+        <v>266.16875</v>
       </c>
       <c r="I2">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750151</v>
       </c>
       <c r="J2">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750152</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.8229900544327</v>
+        <v>27.592778</v>
       </c>
       <c r="N2">
-        <v>23.8229900544327</v>
+        <v>82.778334</v>
       </c>
       <c r="O2">
-        <v>0.243720063312163</v>
+        <v>0.2684079248986126</v>
       </c>
       <c r="P2">
-        <v>0.243720063312163</v>
+        <v>0.2684079248986126</v>
       </c>
       <c r="Q2">
-        <v>1863.435279940318</v>
+        <v>2448.111743095833</v>
       </c>
       <c r="R2">
-        <v>1863.435279940318</v>
+        <v>22033.0056878625</v>
       </c>
       <c r="S2">
-        <v>0.1826086450415181</v>
+        <v>0.2060047083413473</v>
       </c>
       <c r="T2">
-        <v>0.1826086450415181</v>
+        <v>0.2060047083413473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>78.2200418873781</v>
+        <v>88.72291666666666</v>
       </c>
       <c r="H3">
-        <v>78.2200418873781</v>
+        <v>266.16875</v>
       </c>
       <c r="I3">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750151</v>
       </c>
       <c r="J3">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750152</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>64.7640601289208</v>
+        <v>65.63594833333333</v>
       </c>
       <c r="N3">
-        <v>64.7640601289208</v>
+        <v>196.907845</v>
       </c>
       <c r="O3">
-        <v>0.6625658995326807</v>
+        <v>0.6384717294830753</v>
       </c>
       <c r="P3">
-        <v>0.6625658995326807</v>
+        <v>0.6384717294830752</v>
       </c>
       <c r="Q3">
-        <v>5065.847496080859</v>
+        <v>5823.412774315972</v>
       </c>
       <c r="R3">
-        <v>5065.847496080859</v>
+        <v>52410.71496884375</v>
       </c>
       <c r="S3">
-        <v>0.4964312725022149</v>
+        <v>0.4900309201601982</v>
       </c>
       <c r="T3">
-        <v>0.4964312725022149</v>
+        <v>0.4900309201601982</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>78.2200418873781</v>
+        <v>88.72291666666666</v>
       </c>
       <c r="H4">
-        <v>78.2200418873781</v>
+        <v>266.16875</v>
       </c>
       <c r="I4">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750151</v>
       </c>
       <c r="J4">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750152</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.160298683529049</v>
+        <v>9.572925333333334</v>
       </c>
       <c r="N4">
-        <v>9.160298683529049</v>
+        <v>28.718776</v>
       </c>
       <c r="O4">
-        <v>0.09371403715515622</v>
+        <v>0.09312034561831214</v>
       </c>
       <c r="P4">
-        <v>0.09371403715515622</v>
+        <v>0.09312034561831213</v>
       </c>
       <c r="Q4">
-        <v>716.5189467265367</v>
+        <v>849.3378566055555</v>
       </c>
       <c r="R4">
-        <v>716.5189467265367</v>
+        <v>7644.040709450001</v>
       </c>
       <c r="S4">
-        <v>0.07021577589348808</v>
+        <v>0.07147042937346969</v>
       </c>
       <c r="T4">
-        <v>0.07021577589348808</v>
+        <v>0.07147042937346969</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.7865645371817</v>
+        <v>17.91585</v>
       </c>
       <c r="H5">
-        <v>17.7865645371817</v>
+        <v>53.74755</v>
       </c>
       <c r="I5">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="J5">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.8229900544327</v>
+        <v>27.592778</v>
       </c>
       <c r="N5">
-        <v>23.8229900544327</v>
+        <v>82.778334</v>
       </c>
       <c r="O5">
-        <v>0.243720063312163</v>
+        <v>0.2684079248986126</v>
       </c>
       <c r="P5">
-        <v>0.243720063312163</v>
+        <v>0.2684079248986126</v>
       </c>
       <c r="Q5">
-        <v>423.729150071805</v>
+        <v>494.3480717313001</v>
       </c>
       <c r="R5">
-        <v>423.729150071805</v>
+        <v>4449.132645581701</v>
       </c>
       <c r="S5">
-        <v>0.041523634757889</v>
+        <v>0.04159860374973388</v>
       </c>
       <c r="T5">
-        <v>0.041523634757889</v>
+        <v>0.04159860374973389</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.7865645371817</v>
+        <v>17.91585</v>
       </c>
       <c r="H6">
-        <v>17.7865645371817</v>
+        <v>53.74755</v>
       </c>
       <c r="I6">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="J6">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>64.7640601289208</v>
+        <v>65.63594833333333</v>
       </c>
       <c r="N6">
-        <v>64.7640601289208</v>
+        <v>196.907845</v>
       </c>
       <c r="O6">
-        <v>0.6625658995326807</v>
+        <v>0.6384717294830753</v>
       </c>
       <c r="P6">
-        <v>0.6625658995326807</v>
+        <v>0.6384717294830752</v>
       </c>
       <c r="Q6">
-        <v>1151.930135172966</v>
+        <v>1175.92380494775</v>
       </c>
       <c r="R6">
-        <v>1151.930135172966</v>
+        <v>10583.31424452975</v>
       </c>
       <c r="S6">
-        <v>0.1128842001817017</v>
+        <v>0.09895211734231109</v>
       </c>
       <c r="T6">
-        <v>0.1128842001817017</v>
+        <v>0.09895211734231109</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.7865645371817</v>
+        <v>17.91585</v>
       </c>
       <c r="H7">
-        <v>17.7865645371817</v>
+        <v>53.74755</v>
       </c>
       <c r="I7">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="J7">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.160298683529049</v>
+        <v>9.572925333333334</v>
       </c>
       <c r="N7">
-        <v>9.160298683529049</v>
+        <v>28.718776</v>
       </c>
       <c r="O7">
-        <v>0.09371403715515622</v>
+        <v>0.09312034561831214</v>
       </c>
       <c r="P7">
-        <v>0.09371403715515622</v>
+        <v>0.09312034561831213</v>
       </c>
       <c r="Q7">
-        <v>162.93024371445</v>
+        <v>171.5070943332</v>
       </c>
       <c r="R7">
-        <v>162.93024371445</v>
+        <v>1543.5638489988</v>
       </c>
       <c r="S7">
-        <v>0.01596646331711234</v>
+        <v>0.01443204912775084</v>
       </c>
       <c r="T7">
-        <v>0.01596646331711234</v>
+        <v>0.01443204912775084</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.390387248644799</v>
+        <v>8.960212333333333</v>
       </c>
       <c r="H8">
-        <v>8.390387248644799</v>
+        <v>26.880637</v>
       </c>
       <c r="I8">
-        <v>0.08037000830607582</v>
+        <v>0.077511171905189</v>
       </c>
       <c r="J8">
-        <v>0.08037000830607582</v>
+        <v>0.07751117190518901</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.8229900544327</v>
+        <v>27.592778</v>
       </c>
       <c r="N8">
-        <v>23.8229900544327</v>
+        <v>82.778334</v>
       </c>
       <c r="O8">
-        <v>0.243720063312163</v>
+        <v>0.2684079248986126</v>
       </c>
       <c r="P8">
-        <v>0.243720063312163</v>
+        <v>0.2684079248986126</v>
       </c>
       <c r="Q8">
-        <v>199.884111977304</v>
+        <v>247.2371497465286</v>
       </c>
       <c r="R8">
-        <v>199.884111977304</v>
+        <v>2225.134347718758</v>
       </c>
       <c r="S8">
-        <v>0.01958778351275586</v>
+        <v>0.02080461280753142</v>
       </c>
       <c r="T8">
-        <v>0.01958778351275586</v>
+        <v>0.02080461280753142</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.390387248644799</v>
+        <v>8.960212333333333</v>
       </c>
       <c r="H9">
-        <v>8.390387248644799</v>
+        <v>26.880637</v>
       </c>
       <c r="I9">
-        <v>0.08037000830607582</v>
+        <v>0.077511171905189</v>
       </c>
       <c r="J9">
-        <v>0.08037000830607582</v>
+        <v>0.07751117190518901</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>64.7640601289208</v>
+        <v>65.63594833333333</v>
       </c>
       <c r="N9">
-        <v>64.7640601289208</v>
+        <v>196.907845</v>
       </c>
       <c r="O9">
-        <v>0.6625658995326807</v>
+        <v>0.6384717294830753</v>
       </c>
       <c r="P9">
-        <v>0.6625658995326807</v>
+        <v>0.6384717294830752</v>
       </c>
       <c r="Q9">
-        <v>543.3955442761621</v>
+        <v>588.1120337663627</v>
       </c>
       <c r="R9">
-        <v>543.3955442761621</v>
+        <v>5293.008303897265</v>
       </c>
       <c r="S9">
-        <v>0.05325042684876415</v>
+        <v>0.04948869198056598</v>
       </c>
       <c r="T9">
-        <v>0.05325042684876415</v>
+        <v>0.04948869198056598</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.390387248644799</v>
+        <v>8.960212333333333</v>
       </c>
       <c r="H10">
-        <v>8.390387248644799</v>
+        <v>26.880637</v>
       </c>
       <c r="I10">
-        <v>0.08037000830607582</v>
+        <v>0.077511171905189</v>
       </c>
       <c r="J10">
-        <v>0.08037000830607582</v>
+        <v>0.07751117190518901</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.160298683529049</v>
+        <v>9.572925333333334</v>
       </c>
       <c r="N10">
-        <v>9.160298683529049</v>
+        <v>28.718776</v>
       </c>
       <c r="O10">
-        <v>0.09371403715515622</v>
+        <v>0.09312034561831214</v>
       </c>
       <c r="P10">
-        <v>0.09371403715515622</v>
+        <v>0.09312034561831213</v>
       </c>
       <c r="Q10">
-        <v>76.85845326805988</v>
+        <v>85.77544363781244</v>
       </c>
       <c r="R10">
-        <v>76.85845326805988</v>
+        <v>771.978992740312</v>
       </c>
       <c r="S10">
-        <v>0.007531797944555804</v>
+        <v>0.007217867117091606</v>
       </c>
       <c r="T10">
-        <v>0.007531797944555804</v>
+        <v>0.007217867117091606</v>
       </c>
     </row>
   </sheetData>
